--- a/data/income_statement/3digits/total/711_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/711_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>711-Architectural and engineering activities and related technical consultancy</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>711-Architectural and engineering activities and related technical consultancy</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,53 +841,63 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>5578802.012180001</v>
+        <v>5578802.01218</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>6512966.22789</v>
+        <v>6512966.227890001</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>8849934.4781</v>
+        <v>8849935.359300001</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>10247935.2982</v>
+        <v>10414503.778</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>12677091.25466</v>
+        <v>12749296.19393</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>16732137.80107</v>
+        <v>15237723.91742</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>17819717.46528</v>
+        <v>18664614.33755</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>22591568.12998</v>
+        <v>22672355.2646</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>31233940.6622</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>30179393.50554</v>
+        <v>30530762.96916</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>31544896.63247</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>32229047.59913</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>38459662.622</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>5024098.03029</v>
@@ -995,40 +906,45 @@
         <v>5879740.31097</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>7981069.095720001</v>
+        <v>7981069.97692</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>9059879.942060001</v>
+        <v>9074151.75718</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>11170814.9194</v>
+        <v>11240807.5572</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>14748784.29135</v>
+        <v>13250604.22539</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>15646655.11178</v>
+        <v>16462867.28228</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>20269539.88388</v>
+        <v>20329463.64292</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>27821059.63378</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>27486082.2922</v>
+        <v>27827983.89481</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>28085017.40219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>28661674.29228</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>33359981.686</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>423147.7904699999</v>
+        <v>423147.79047</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>475702.44186</v>
@@ -1037,34 +953,39 @@
         <v>623078.09968</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>923073.06362</v>
+        <v>1075326.41839</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>1219728.58818</v>
+        <v>1220526.22758</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>1696139.18699</v>
+        <v>1698787.75687</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>1831716.70973</v>
+        <v>1851340.04673</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>1864712.93629</v>
+        <v>1885347.84631</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>2635604.02733</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>2161860.18768</v>
+        <v>2169787.03301</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>2888856.0861</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2981479.97983</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>4423852.884</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>131556.19142</v>
@@ -1076,34 +997,39 @@
         <v>245787.2827</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>264982.29252</v>
+        <v>265025.60243</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>286547.74708</v>
+        <v>287962.40915</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>287214.32273</v>
+        <v>288331.9351600001</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>341345.64377</v>
+        <v>350407.00854</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>457315.30981</v>
+        <v>457543.77537</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>777277.00109</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>531451.0256599999</v>
+        <v>532992.04134</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>571023.1441799999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>585893.32702</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>675828.052</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>34743.78279</v>
@@ -1112,37 +1038,42 @@
         <v>44141.93764</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>51075.84933999999</v>
+        <v>51075.84934</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>111986.47981</v>
+        <v>113776.00469</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>150559.71637</v>
+        <v>152907.80401</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1786564.75472</v>
+        <v>64203.8538</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>156939.4101</v>
+        <v>157881.48611</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>198222.14308</v>
+        <v>198751.35847</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>249296.36069</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>233154.13605</v>
+        <v>234858.29448</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>556446.19861</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>303746.55523</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>520052.798</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>20947.54891</v>
@@ -1154,34 +1085,39 @@
         <v>36329.82893</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>79324.9912</v>
+        <v>79337.65560000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>115058.40496</v>
+        <v>115075.38582</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1755512.44234</v>
+        <v>33379.57501</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>137403.41263</v>
+        <v>138153.36708</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>178333.14728</v>
+        <v>178877.21416</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>205034.9562</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>190381.77962</v>
+        <v>192069.70829</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>522570.3015500001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>269647.93701</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>468065.581</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>11830.20745</v>
@@ -1199,10 +1135,10 @@
         <v>29888.19087</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6516.07602</v>
+        <v>6288.04243</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>9057.030620000001</v>
+        <v>9150.395620000001</v>
       </c>
       <c r="J11" s="48" t="n">
         <v>10421.88258</v>
@@ -1211,55 +1147,65 @@
         <v>28894.72282</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>23879.22695</v>
+        <v>23894.26019</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>18459.23979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>18460.96422</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>35547.528</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>1966.02643</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>7455.01389</v>
+        <v>7455.013889999999</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>3596.2343</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>20644.53361</v>
+        <v>22421.39409</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5613.12054</v>
+        <v>7944.227319999999</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>24536.23636</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>10478.96685</v>
+        <v>10577.72341</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>9467.113220000001</v>
+        <v>9452.26173</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>15366.68167</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>18893.12948</v>
+        <v>18894.326</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>15416.65727</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>15637.654</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>16439.689</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>5544058.22939</v>
@@ -1268,40 +1214,45 @@
         <v>6468824.29025</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>8798858.628760001</v>
+        <v>8798859.509959999</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>10135948.81839</v>
+        <v>10300727.77331</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>12526531.53829</v>
+        <v>12596388.38992</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>14945573.04635</v>
+        <v>15173520.06362</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>17662778.05518</v>
+        <v>18506732.85144</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>22393345.9869</v>
+        <v>22473603.90613</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>30984644.30151</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>29946239.36949</v>
+        <v>30295904.67468</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>30988450.43386</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>31925301.0439</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>37939609.824</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>3840709.85544</v>
+        <v>3840709.855440001</v>
       </c>
       <c r="D14" s="47" t="n">
         <v>4351158.32887</v>
@@ -1310,34 +1261,39 @@
         <v>5922328.811059999</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>7058216.472809999</v>
+        <v>7219206.536239999</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>8866449.767210001</v>
+        <v>8923819.188580001</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>10840511.52573</v>
+        <v>11039666.79393</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>13023837.93789</v>
+        <v>13788989.72821</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>16979989.66815</v>
+        <v>17059550.6702</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>23829532.78148</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>23032187.62669</v>
+        <v>23283292.53352</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>23884219.94608</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>24689715.95999</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>29483066.691</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>347135.70046</v>
@@ -1349,37 +1305,42 @@
         <v>514579.86622</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>576758.7209</v>
+        <v>578462.03263</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>764101.84108</v>
+        <v>771390.76058</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>940482.9531599999</v>
+        <v>948515.3786399999</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>1130895.27105</v>
+        <v>1174690.42277</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>1540044.86591</v>
+        <v>1543391.08287</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>2370520.6375</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>2282848.72069</v>
+        <v>2307942.3864</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>3036689.3442</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>3090571.37187</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>3351600.944</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>895446.0339299999</v>
+        <v>895446.03393</v>
       </c>
       <c r="D16" s="48" t="n">
         <v>1017864.29754</v>
@@ -1388,34 +1349,39 @@
         <v>1547607.62395</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>1778399.73142</v>
+        <v>1781440.08522</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>2130884.9882</v>
+        <v>2141938.17969</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2862385.688649999</v>
+        <v>2867264.771</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3464648.8345</v>
+        <v>3509055.47387</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>4159646.74318</v>
+        <v>4163512.65698</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>7067561.267719999</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>5274794.66747</v>
+        <v>5328943.26727</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>5100098.75084</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>5432651.04289</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>7887925.664</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>2582167.47619</v>
@@ -1427,34 +1393,39 @@
         <v>3828359.49408</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>4671526.17772</v>
+        <v>4827772.575620001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>5941941.91018</v>
+        <v>5980969.220559999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>6919432.22012</v>
+        <v>7105668.12212</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>8366737.3525</v>
+        <v>9039309.273379998</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>11187631.10148</v>
+        <v>11259886.94147</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>14247906.66243</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>15223828.04787</v>
+        <v>15395540.46716</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>15598012.77273</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>16006332.91101</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>18011434.274</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>15960.64486</v>
@@ -1472,28 +1443,33 @@
         <v>29521.02775</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>118210.6638</v>
+        <v>118218.52217</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>61556.47984</v>
+        <v>65934.55819</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>92666.95758</v>
+        <v>92759.98887999999</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>143544.21383</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>250716.19066</v>
+        <v>250866.41269</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>149419.07831</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>160160.63422</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>232105.809</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>1703348.37395</v>
@@ -1502,76 +1478,86 @@
         <v>2117665.96138</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>2876529.8177</v>
+        <v>2876530.6989</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>3077732.34558</v>
+        <v>3081521.23707</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3660081.77108</v>
+        <v>3672569.20134</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4105061.52062</v>
+        <v>4133853.26969</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>4638940.117289999</v>
+        <v>4717743.123229999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5413356.31875</v>
+        <v>5414053.23593</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>7155111.520029999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>6914051.742799999</v>
+        <v>7012612.14116</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>7104230.487780001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>7235585.08391</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>8456543.132999999</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>1174114.45024</v>
+        <v>1174114.95024</v>
       </c>
       <c r="D20" s="47" t="n">
         <v>1395826.72116</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>1832039.4075</v>
+        <v>1832051.18102</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>2111542.52043</v>
+        <v>2121076.11387</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2598500.18548</v>
+        <v>2609475.06206</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>2962434.75174</v>
+        <v>2981702.71572</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3463558.27787</v>
+        <v>3514321.65993</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>4041731.22627</v>
+        <v>4046802.184520001</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4976592.914959999</v>
+        <v>4976592.91496</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>4990536.06656</v>
+        <v>5027813.00735</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>5951833.72915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>6042716.30187</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>5929894.41</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>18440.91357</v>
@@ -1583,19 +1569,19 @@
         <v>38338.51111</v>
       </c>
       <c r="F21" s="48" t="n">
-        <v>79532.5058</v>
+        <v>80074.54293000001</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>81639.87540999999</v>
+        <v>81853.36752000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>81628.45515000001</v>
+        <v>81737.62879999999</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>101845.03344</v>
+        <v>102139.87498</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>106089.27095</v>
+        <v>106112.57049</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>329219.816</v>
@@ -1604,52 +1590,62 @@
         <v>270483.63424</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>384207.97699</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>385016.93463</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>417162.372</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>80194.33416</v>
+        <v>80194.83416000001</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>100849.98862</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>146992.12075</v>
+        <v>146994.63387</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>155692.63951</v>
+        <v>160506.43038</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>165479.88706</v>
+        <v>167647.07508</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>203473.25512</v>
+        <v>205491.03345</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>242041.99331</v>
+        <v>244658.78105</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>284533.34476</v>
+        <v>284631.33336</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>405904.23318</v>
+        <v>405904.2331799999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>409055.8791999999</v>
+        <v>418211.12656</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>476482.88173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>488062.51138</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>579907.505</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
         <v>1075479.20251</v>
@@ -1658,115 +1654,130 @@
         <v>1279279.94052</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>1646708.77564</v>
+        <v>1646718.03604</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>1876317.37512</v>
+        <v>1880495.14056</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>2351380.42301</v>
+        <v>2359974.61946</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>2677333.04147</v>
+        <v>2694474.05347</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>3119671.25112</v>
+        <v>3167523.003899999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>3651108.610559999</v>
+        <v>3656058.28067</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>4241468.865780001</v>
+        <v>4241468.86578</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>4310996.55312</v>
+        <v>4339118.246549999</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>5091142.87043</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5169636.85586</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>4932824.533</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>529233.92371</v>
+        <v>529233.42371</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>721839.24022</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>1044490.4102</v>
+        <v>1044479.51788</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>966189.8251499999</v>
+        <v>960445.1232</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1061581.5856</v>
+        <v>1063094.13928</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1142626.76888</v>
+        <v>1152150.55397</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1175381.83942</v>
+        <v>1203421.4633</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1371625.09248</v>
+        <v>1367251.05141</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>2178518.60507</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>1923515.67624</v>
+        <v>1984799.13381</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>1152396.75863</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>1192868.78204</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>2526648.723</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>423958.64227</v>
+        <v>423958.6422700001</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>422737.0066700001</v>
+        <v>422737.00667</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>720847.2345899999</v>
+        <v>720840.80862</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>493206.6545700001</v>
+        <v>494177.12582</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>2737161.614150001</v>
+        <v>2764708.44086</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1844874.73813</v>
+        <v>1862025.55232</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>3033821.02049</v>
+        <v>3152592.6899</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2748784.83967</v>
+        <v>2752848.22071</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>3632969.42266</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>15916484.36219</v>
+        <v>15979368.99978</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>3611107.52011</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>3657069.24135</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>6495830.63</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>39934.99514</v>
@@ -1775,19 +1786,19 @@
         <v>73155.39908</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>69081.9509</v>
+        <v>69081.95090000001</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>92390.95613999999</v>
+        <v>92421.26557</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>138154.47453</v>
+        <v>163631.16825</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>288992.96819</v>
+        <v>290822.10359</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>184354.19912</v>
+        <v>184368.85384</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>251337.9193</v>
@@ -1796,19 +1807,24 @@
         <v>263158.35583</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>281612.32931</v>
+        <v>285341.50359</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>290676.23022</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>292669.81868</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>167125.342</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>4740.57383</v>
+        <v>4740.573829999999</v>
       </c>
       <c r="D27" s="48" t="n">
         <v>9573.8526</v>
@@ -1817,19 +1833,19 @@
         <v>7657.19687</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>7309.01654</v>
+        <v>7309.016539999999</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>1571453.00176</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>650480.1426299999</v>
+        <v>650480.14263</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>1142558.24701</v>
+        <v>1142656.00609</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>616785.4672300002</v>
+        <v>616785.4672300001</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>142549.33024</v>
@@ -1838,16 +1854,21 @@
         <v>119018.21426</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>189320.79537</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>189354.27066</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>158922.113</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>38691.93319999999</v>
+        <v>38691.9332</v>
       </c>
       <c r="D28" s="48" t="n">
         <v>43737.38627</v>
@@ -1856,34 +1877,39 @@
         <v>62899.23125</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>82975.79690999999</v>
+        <v>83131.41434999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>89830.20223</v>
+        <v>90206.7031</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>84256.30879</v>
+        <v>84961.61404</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>118074.64041</v>
+        <v>123004.25316</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>151243.5131</v>
+        <v>151666.11144</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>265226.70727</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>324086.70571</v>
+        <v>326279.43876</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>371361.72116</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>377160.57641</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>278848.782</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>3681.15479</v>
@@ -1901,10 +1927,10 @@
         <v>3196.81232</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>5301.233220000001</v>
+        <v>5301.23322</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>5045.37179</v>
+        <v>5499.400900000001</v>
       </c>
       <c r="J29" s="48" t="n">
         <v>12883.45158</v>
@@ -1916,13 +1942,18 @@
         <v>4596.634319999999</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>5239.467310000001</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>5299.868300000001</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>14706.544</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>4696.06916</v>
@@ -1937,13 +1968,13 @@
         <v>9456.54285</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>9925.459360000001</v>
+        <v>9928.509050000001</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>9414.891350000002</v>
+        <v>9614.708939999999</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7847.913680000001</v>
+        <v>8533.59895</v>
       </c>
       <c r="J30" s="48" t="n">
         <v>10128.13065</v>
@@ -1955,13 +1986,18 @@
         <v>14188.9437</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>17214.86233</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>17418.51233</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>21696.103</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>67107.03446</v>
@@ -1979,28 +2015,33 @@
         <v>183423.62163</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>5476.2637</v>
+        <v>5508.45636</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11623.51528</v>
+        <v>11738.91627</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>78486.151</v>
+        <v>78609.37849</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>990287.8132999999</v>
+        <v>990287.8133</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>20448.56322</v>
+        <v>20681.9456</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>35484.66830999999</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>35998.00357</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>43749.198</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>216629.13964</v>
@@ -2012,34 +2053,39 @@
         <v>473612.4774100001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>205359.01751</v>
+        <v>205486.3767</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>642091.5789300001</v>
+        <v>642814.87574</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>655030.34714</v>
+        <v>668812.81582</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1406673.35664</v>
+        <v>1510364.0942</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1471771.96775</v>
+        <v>1474684.86197</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>1749436.01122</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>5996038.844049999</v>
+        <v>6050026.772540001</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>2466669.68465</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>2501952.99091</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>5482835.286</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>305.4981</v>
@@ -2054,13 +2100,13 @@
         <v>263.78625</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>918.1351199999999</v>
+        <v>918.13512</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>760.80058</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>2079.52853</v>
+        <v>2086.61027</v>
       </c>
       <c r="J33" s="48" t="n">
         <v>753.1156999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>24339.0301</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>49913.883</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>216.3366</v>
@@ -2113,50 +2164,60 @@
       <c r="M34" s="48" t="n">
         <v>518.56768</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>1050.632</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>47955.90735</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>71235.15526</v>
+        <v>71235.15525999998</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>62974.16909</v>
+        <v>62967.74312</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>89695.04525</v>
+        <v>90352.23044</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>98143.7025</v>
+        <v>99110.98812000001</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>145082.37771</v>
+        <v>145684.27232</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>154826.2392</v>
+        <v>163602.94739</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>155213.35712</v>
+        <v>155818.01811</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>195572.70208</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>9154614.63044</v>
+        <v>9157356.049830001</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>210282.49298</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>212357.60271</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>276982.747</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>228693.80749</v>
@@ -2165,37 +2226,42 @@
         <v>216263.54965</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>905734.1379000001</v>
+        <v>905734.1379</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>282211.88001</v>
+        <v>282343.86336</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>721507.1281500001</v>
+        <v>724251.5523499999</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>647657.5430599999</v>
+        <v>659915.3228</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1153999.99462</v>
+        <v>1238723.2846</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1411330.81601</v>
+        <v>1413651.15598</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>1911132.23627</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>23512612.9247</v>
+        <v>23570046.28643</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>2563165.88628</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>2599433.52427</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>5755017.941</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>2017.99242</v>
@@ -2216,7 +2282,7 @@
         <v>3950.11208</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>5227.27644</v>
+        <v>5230.49026</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>4304.99618</v>
@@ -2225,16 +2291,21 @@
         <v>6672.834769999999</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>4488.468090000001</v>
+        <v>4547.63616</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>6062.14856</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>6134.60376</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>13151.987</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>8514.6265</v>
@@ -2255,25 +2326,30 @@
         <v>26085.14997</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>22348.69221</v>
+        <v>26469.89031</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>27160.93782</v>
+        <v>27124.86107</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>45409.89487999999</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>71416.94971000002</v>
+        <v>71416.94970999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>46776.60584</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>47385.55614</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>31808.638</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>465.8379200000001</v>
@@ -2297,22 +2373,27 @@
         <v>2772.85527</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>2534.880479999999</v>
+        <v>2535.738980000001</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>1770.42112</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>18875.59241</v>
+        <v>18876.34784</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>5571.15094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>5577.188109999999</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>8046.283</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>196857.44716</v>
@@ -2321,43 +2402,48 @@
         <v>178287.81919</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>848317.1688199999</v>
+        <v>848317.16882</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>228295.47422</v>
+        <v>228377.75097</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>656130.03824</v>
+        <v>657710.70687</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>568132.00188</v>
+        <v>580326.07274</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1055125.63293</v>
+        <v>1135437.21148</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1290379.51038</v>
+        <v>1292753.98761</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>1778241.24018</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>5731451.417149999</v>
+        <v>5786444.20432</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>2427936.16151</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>2461203.68775</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>5502316.687</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>130.68752</v>
       </c>
       <c r="D41" s="48" t="n">
-        <v>91.52340000000001</v>
+        <v>91.5234</v>
       </c>
       <c r="E41" s="48" t="n">
         <v>31.54422</v>
@@ -2378,19 +2464,24 @@
         <v>1059.6968</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>2289.75123</v>
+        <v>2289.751229999999</v>
       </c>
       <c r="L41" s="48" t="n">
-        <v>301.58972</v>
+        <v>301.5897200000001</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>11053.24927</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>11054.42507</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>23495.289</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>31.053</v>
@@ -2405,7 +2496,7 @@
         <v>37.76027000000001</v>
       </c>
       <c r="G42" s="48" t="n">
-        <v>34.13985</v>
+        <v>34.13986</v>
       </c>
       <c r="H42" s="48" t="n">
         <v>94.00316000000001</v>
@@ -2414,22 +2505,27 @@
         <v>139.91195</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>87.99142000000002</v>
+        <v>87.99142000000001</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>149.51588</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>551.93797</v>
+        <v>551.9379700000001</v>
       </c>
       <c r="M42" s="48" t="n">
         <v>290.28126</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>796.148</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>20676.16297</v>
@@ -2441,34 +2537,39 @@
         <v>42966.27933</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>32621.84524</v>
+        <v>32671.55184</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>42434.23952</v>
+        <v>43597.99508</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>46245.66062</v>
+        <v>46309.3695</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>67820.00172</v>
+        <v>68107.30123</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>85802.80292999999</v>
+        <v>85783.88392000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>76598.57820999999</v>
+        <v>76598.57821000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>17685526.96965</v>
+        <v>17687907.62071</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>65476.28890000001</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>67787.78217999999</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>175402.909</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>145071.55404</v>
@@ -2480,79 +2581,89 @@
         <v>169493.5008</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>127043.20132</v>
+        <v>127121.78807</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>997462.45396</v>
+        <v>997727.12664</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>1077747.01811</v>
+        <v>1078174.41316</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1232128.46844</v>
+        <v>1238061.83435</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1627119.23578</v>
+        <v>1627800.49319</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2050719.67567</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>2168847.75484</v>
+        <v>2172025.11511</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>979278.99199</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>984890.1785299999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>657081.273</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>94290.92161</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>68086.96064999999</v>
+        <v>68086.96065000001</v>
       </c>
       <c r="E45" s="48" t="n">
         <v>87866.12028</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>116201.14125</v>
+        <v>116279.728</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>153229.59418</v>
+        <v>153494.26686</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>172974.21955</v>
+        <v>173401.6146</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>271325.6502</v>
+        <v>277117.89121</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>356328.81455</v>
+        <v>357016.52112</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1916782.85688</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>1980505.37339</v>
+        <v>1983649.69432</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>874851.5265899999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>880402.5124</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>588952.623</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>50780.63243</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>51058.80786000001</v>
+        <v>51058.80786</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>81627.38052000001</v>
@@ -2567,103 +2678,118 @@
         <v>904772.7985599999</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>960802.8182400002</v>
+        <v>960943.94314</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>1270790.42123</v>
+        <v>1270783.97207</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>133936.81879</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>188342.38145</v>
+        <v>188375.42079</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>104427.4654</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>104487.66613</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>68128.64999999999</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>579427.2044500001</v>
+        <v>579426.7044500001</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>809166.92873</v>
+        <v>809166.9287299999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>690110.00609</v>
+        <v>690092.6878000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>1050141.39839</v>
+        <v>1045156.59759</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>2079773.61764</v>
+        <v>2105823.90115</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1262096.94584</v>
+        <v>1276086.37033</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1823074.39685</v>
+        <v>1879229.03425</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>1081959.88036</v>
+        <v>1078647.62295</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>1849636.11579</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>-7841460.641109998</v>
+        <v>-7777903.267950001</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>1221059.40047</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>1265614.32059</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>2610380.139</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>35416.88095000001</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>55105.89076</v>
+        <v>55105.89075999999</v>
       </c>
       <c r="E48" s="47" t="n">
         <v>124443.74493</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>100560.69283</v>
+        <v>100594.93283</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>139736.48693</v>
+        <v>140257.30152</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>151556.34033</v>
+        <v>153593.85271</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>216022.62507</v>
+        <v>221502.42156</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>489540.4253</v>
+        <v>490701.42888</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>405279.67255</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>410355.49638</v>
+        <v>412030.4062</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>450363.95443</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>455416.04162</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>646437.569</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>1003.40932</v>
@@ -2675,37 +2801,42 @@
         <v>1238.27328</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1486.85334</v>
+        <v>1509.58502</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>2112.16383</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1962.46672</v>
+        <v>3572.46672</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>1477.15331</v>
+        <v>1614.40504</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>7141.36782</v>
+        <v>7397.75115</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>5116.23207</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>13655.48985</v>
+        <v>14843.67336</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>7462.92486</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>7462.8361</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>25400.706</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>34413.47163</v>
+        <v>34413.47162999999</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>54059.20911</v>
@@ -2714,34 +2845,39 @@
         <v>123205.47165</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>99073.83949000001</v>
+        <v>99085.34781000001</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>137624.3231</v>
+        <v>138145.13769</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>149593.87361</v>
+        <v>150021.38599</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>214545.47176</v>
+        <v>219888.01652</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>482399.05748</v>
+        <v>483303.67773</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>400163.4404799999</v>
+        <v>400163.44048</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>396700.00653</v>
+        <v>397186.73284</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>442901.02957</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>447953.20552</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>621036.863</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>45105.77529</v>
@@ -2753,37 +2889,42 @@
         <v>1064513.69788</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>110619.64393</v>
+        <v>110632.85856</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>103442.19123</v>
+        <v>103791.88194</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>605313.6086599999</v>
+        <v>612351.33387</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>206999.49786</v>
+        <v>212473.53615</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>968347.6151700001</v>
+        <v>969969.58476</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>258650.36562</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>903143.1780800001</v>
+        <v>909559.4723500001</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>357000.60739</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>361444.46325</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>442178.734</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>995.1205999999999</v>
+        <v>995.1206</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>1748.68836</v>
@@ -2804,7 +2945,7 @@
         <v>2521.06991</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>6574.15652</v>
+        <v>6574.65055</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>2646.58531</v>
@@ -2813,16 +2954,21 @@
         <v>3435.21786</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>3689.20625</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>3704.24391</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>9923.683000000001</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>5064.27002</v>
+        <v>5064.270020000001</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>5127.28098</v>
@@ -2831,34 +2977,39 @@
         <v>13621.64653</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>7989.77081</v>
+        <v>7989.770810000001</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>8299.009789999998</v>
+        <v>8364.18756</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14245.66251</v>
+        <v>15964.46867</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>14877.90003</v>
+        <v>16551.27923</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>21505.65324</v>
+        <v>21654.54704</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>10174.26676</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>29777.89928</v>
+        <v>29814.00186</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>30332.5382</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>30436.50296</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>35209.881</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>39046.38467</v>
@@ -2870,73 +3021,83 @@
         <v>1048959.74456</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>101478.68857</v>
+        <v>101491.9032</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>93539.06709</v>
+        <v>93823.58003</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>589019.4922999999</v>
+        <v>594338.4113500001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>189600.52792</v>
+        <v>193401.18701</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>940267.80541</v>
+        <v>941740.38717</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>245829.51355</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>869930.0609400001</v>
+        <v>876310.25263</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>322978.86294</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>327303.71638</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>397045.17</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>569738.31011</v>
+        <v>569737.8101099998</v>
       </c>
       <c r="D55" s="47" t="n">
         <v>805736.50841</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-249959.9468600001</v>
+        <v>-249977.26515</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>1040082.44729</v>
+        <v>1035118.67186</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>2116067.91334</v>
+        <v>2142289.32073</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>808339.67751</v>
+        <v>817328.8891700001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>1832097.52406</v>
+        <v>1888257.91966</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>603152.6904900001</v>
+        <v>599379.4670700001</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>1996265.42272</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>-8334248.322810001</v>
+        <v>-8275432.334100001</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>1314422.74751</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>1359585.89896</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>2814638.974</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>127054.90212</v>
@@ -2948,70 +3109,78 @@
         <v>202500.40385</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>197071.74015</v>
+        <v>197252.29367</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>243757.01194</v>
+        <v>249531.58331</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>270929.50312</v>
+        <v>273390.26959</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>296146.8717200001</v>
+        <v>309592.41702</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>365150.97478</v>
+        <v>366053.26691</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>518404.35532</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>578052.48673</v>
+        <v>595491.12251</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>479756.66113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>493763.03437</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>729699.106</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>442683.40799</v>
+        <v>442682.90799</v>
       </c>
       <c r="D57" s="47" t="n">
         <v>654177.8445</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-452460.35071</v>
+        <v>-452477.669</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>843010.7071400001</v>
+        <v>837866.3781900001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>1872310.9014</v>
+        <v>1892757.73742</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>537410.1743899999</v>
+        <v>543938.6195800001</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>1535950.65234</v>
+        <v>1578665.50264</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>238001.71571</v>
+        <v>233326.20016</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1477861.0674</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>-8912300.809540002</v>
+        <v>-8870923.45661</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>834666.08638</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>865822.8645900001</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>2084939.868</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>13141</v>
+        <v>13142</v>
       </c>
       <c r="D59" s="35" t="n">
         <v>14534</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>15870</v>
+        <v>15872</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>17167</v>
+        <v>17188</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>19633</v>
+        <v>19672</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>20978</v>
+        <v>21075</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>22617</v>
+        <v>22853</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>23707</v>
+        <v>23831</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>25370</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>25835</v>
+        <v>26554</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>26090</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>27341</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>29275</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>